--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_21-02.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_21-02.xlsx
@@ -251,7 +251,7 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>7:4</t>
+    <t>7:3</t>
   </si>
   <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
@@ -386,7 +386,7 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>3:8</t>
+    <t>3:6</t>
   </si>
   <si>
     <t>OTAL EAR DROPS 5 ML</t>
@@ -2516,7 +2516,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -3530,7 +3530,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -5879,7 +5879,7 @@
     </row>
     <row r="181" ht="25.5" customHeight="1">
       <c r="K181" s="10">
-        <v>11118.31</v>
+        <v>11130.31</v>
       </c>
       <c r="L181" s="10"/>
       <c r="M181" s="10"/>
